--- a/2020-10-30/Hot_pumpkin.xlsx
+++ b/2020-10-30/Hot_pumpkin.xlsx
@@ -414,11 +414,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="L10">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -699,7 +699,7 @@
         <v>8</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>9</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
         <v>10</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>12</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
         <v>13</v>
       </c>
       <c r="L18">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
         <v>14</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -931,7 +931,7 @@
         <v>16</v>
       </c>
       <c r="L21">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
         <v>17</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -989,7 +989,7 @@
         <v>18</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>19</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
         <v>20</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
         <v>21</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
         <v>22</v>
       </c>
       <c r="L27">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
         <v>23</v>
       </c>
       <c r="L28">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1163,7 +1163,7 @@
         <v>24</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,7 @@
         <v>25</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1221,7 +1221,7 @@
         <v>26</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>27</v>
       </c>
       <c r="L32">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>28</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1308,7 +1308,7 @@
         <v>29</v>
       </c>
       <c r="L34">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
         <v>30</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
         <v>31</v>
       </c>
       <c r="L36">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
         <v>32</v>
       </c>
       <c r="L37">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1417,14 +1417,14 @@
         <v>33</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H69" si="3">MATCH(G38,D$6:D$65,0)</f>
+        <f t="shared" ref="H38:H66" si="3">MATCH(G38,D$6:D$65,0)</f>
         <v>9</v>
       </c>
       <c r="K38">
         <v>33</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>34</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
         <v>35</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
         <v>37</v>
       </c>
       <c r="L42">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1569,7 +1569,7 @@
         <v>38</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>39</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
         <v>40</v>
       </c>
       <c r="L45">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1656,7 +1656,7 @@
         <v>41</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
         <v>42</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -1714,7 +1714,7 @@
         <v>43</v>
       </c>
       <c r="L48">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>44</v>
       </c>
       <c r="L49">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -1772,7 +1772,7 @@
         <v>45</v>
       </c>
       <c r="L50">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -1801,7 +1801,7 @@
         <v>46</v>
       </c>
       <c r="L51">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -1830,7 +1830,7 @@
         <v>47</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -1859,7 +1859,7 @@
         <v>48</v>
       </c>
       <c r="L53">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
         <v>49</v>
       </c>
       <c r="L54">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -1917,7 +1917,7 @@
         <v>50</v>
       </c>
       <c r="L55">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>51</v>
       </c>
       <c r="L56">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -1975,7 +1975,7 @@
         <v>52</v>
       </c>
       <c r="L57">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2004,7 +2004,7 @@
         <v>53</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2033,7 +2033,7 @@
         <v>54</v>
       </c>
       <c r="L59">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2062,7 +2062,7 @@
         <v>55</v>
       </c>
       <c r="L60">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2091,7 +2091,7 @@
         <v>56</v>
       </c>
       <c r="L61">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>57</v>
       </c>
       <c r="L62">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2149,7 +2149,7 @@
         <v>58</v>
       </c>
       <c r="L63">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2178,7 +2178,7 @@
         <v>59</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2207,7 +2207,7 @@
         <v>60</v>
       </c>
       <c r="L65">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2222,7 +2222,7 @@
         <v>61</v>
       </c>
       <c r="L66">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -2230,7 +2230,7 @@
         <v>62</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -2238,7 +2238,7 @@
         <v>63</v>
       </c>
       <c r="L68">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -2246,7 +2246,7 @@
         <v>64</v>
       </c>
       <c r="L69">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -2254,7 +2254,7 @@
         <v>65</v>
       </c>
       <c r="L70">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -2262,7 +2262,7 @@
         <v>66</v>
       </c>
       <c r="L71">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -2270,7 +2270,7 @@
         <v>67</v>
       </c>
       <c r="L72">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -2278,7 +2278,7 @@
         <v>68</v>
       </c>
       <c r="L73">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -2294,7 +2294,7 @@
         <v>70</v>
       </c>
       <c r="L75">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -2302,7 +2302,7 @@
         <v>71</v>
       </c>
       <c r="L76">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -2310,7 +2310,7 @@
         <v>72</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -2318,7 +2318,7 @@
         <v>73</v>
       </c>
       <c r="L78">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
         <v>74</v>
       </c>
       <c r="L79">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -2334,7 +2334,7 @@
         <v>75</v>
       </c>
       <c r="L80">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="11:12" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
         <v>76</v>
       </c>
       <c r="L81">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="11:12" x14ac:dyDescent="0.25">
@@ -2350,7 +2350,7 @@
         <v>77</v>
       </c>
       <c r="L82">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="11:12" x14ac:dyDescent="0.25">
@@ -2358,7 +2358,7 @@
         <v>78</v>
       </c>
       <c r="L83">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="11:12" x14ac:dyDescent="0.25">
@@ -2366,7 +2366,7 @@
         <v>79</v>
       </c>
       <c r="L84">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="11:12" x14ac:dyDescent="0.25">
@@ -2374,7 +2374,7 @@
         <v>80</v>
       </c>
       <c r="L85">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="11:12" x14ac:dyDescent="0.25">
@@ -2382,7 +2382,7 @@
         <v>81</v>
       </c>
       <c r="L86">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="11:12" x14ac:dyDescent="0.25">
@@ -2390,7 +2390,7 @@
         <v>82</v>
       </c>
       <c r="L87">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="11:12" x14ac:dyDescent="0.25">
@@ -2398,7 +2398,7 @@
         <v>83</v>
       </c>
       <c r="L88">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="11:12" x14ac:dyDescent="0.25">
@@ -2406,7 +2406,7 @@
         <v>84</v>
       </c>
       <c r="L89">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="11:12" x14ac:dyDescent="0.25">
@@ -2414,7 +2414,7 @@
         <v>85</v>
       </c>
       <c r="L90">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="11:12" x14ac:dyDescent="0.25">
@@ -2422,7 +2422,7 @@
         <v>86</v>
       </c>
       <c r="L91">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="11:12" x14ac:dyDescent="0.25">
@@ -2430,7 +2430,7 @@
         <v>87</v>
       </c>
       <c r="L92">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="11:12" x14ac:dyDescent="0.25">
@@ -2438,7 +2438,7 @@
         <v>88</v>
       </c>
       <c r="L93">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="11:12" x14ac:dyDescent="0.25">
@@ -2446,7 +2446,7 @@
         <v>89</v>
       </c>
       <c r="L94">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="11:12" x14ac:dyDescent="0.25">
@@ -2454,7 +2454,7 @@
         <v>90</v>
       </c>
       <c r="L95">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="11:12" x14ac:dyDescent="0.25">
@@ -2462,7 +2462,7 @@
         <v>91</v>
       </c>
       <c r="L96">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="11:12" x14ac:dyDescent="0.25">
@@ -2470,7 +2470,7 @@
         <v>92</v>
       </c>
       <c r="L97">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="11:12" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
         <v>93</v>
       </c>
       <c r="L98">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="11:12" x14ac:dyDescent="0.25">
@@ -2486,7 +2486,7 @@
         <v>94</v>
       </c>
       <c r="L99">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="11:12" x14ac:dyDescent="0.25">
@@ -2494,7 +2494,7 @@
         <v>95</v>
       </c>
       <c r="L100">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="11:12" x14ac:dyDescent="0.25">
@@ -2502,7 +2502,7 @@
         <v>96</v>
       </c>
       <c r="L101">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="11:12" x14ac:dyDescent="0.25">
@@ -2510,7 +2510,7 @@
         <v>97</v>
       </c>
       <c r="L102">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="11:12" x14ac:dyDescent="0.25">
@@ -2518,7 +2518,7 @@
         <v>98</v>
       </c>
       <c r="L103">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="11:12" x14ac:dyDescent="0.25">
@@ -2526,7 +2526,7 @@
         <v>99</v>
       </c>
       <c r="L104">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="11:12" x14ac:dyDescent="0.25">
@@ -2534,7 +2534,7 @@
         <v>100</v>
       </c>
       <c r="L105">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="11:12" x14ac:dyDescent="0.25">
@@ -2542,7 +2542,7 @@
         <v>101</v>
       </c>
       <c r="L106">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="11:12" x14ac:dyDescent="0.25">
@@ -2550,7 +2550,7 @@
         <v>102</v>
       </c>
       <c r="L107">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="11:12" x14ac:dyDescent="0.25">
@@ -2558,7 +2558,7 @@
         <v>103</v>
       </c>
       <c r="L108">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="11:12" x14ac:dyDescent="0.25">
@@ -2566,7 +2566,7 @@
         <v>104</v>
       </c>
       <c r="L109">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="11:12" x14ac:dyDescent="0.25">
@@ -2574,7 +2574,7 @@
         <v>105</v>
       </c>
       <c r="L110">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="11:12" x14ac:dyDescent="0.25">
@@ -2582,7 +2582,7 @@
         <v>106</v>
       </c>
       <c r="L111">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="11:12" x14ac:dyDescent="0.25">
@@ -2590,7 +2590,7 @@
         <v>107</v>
       </c>
       <c r="L112">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="11:12" x14ac:dyDescent="0.25">
@@ -2598,7 +2598,7 @@
         <v>108</v>
       </c>
       <c r="L113">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="11:12" x14ac:dyDescent="0.25">
@@ -2606,7 +2606,7 @@
         <v>109</v>
       </c>
       <c r="L114">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="11:12" x14ac:dyDescent="0.25">
@@ -2614,7 +2614,7 @@
         <v>110</v>
       </c>
       <c r="L115">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="11:12" x14ac:dyDescent="0.25">
@@ -2622,7 +2622,7 @@
         <v>111</v>
       </c>
       <c r="L116">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117" spans="11:12" x14ac:dyDescent="0.25">
@@ -2630,7 +2630,7 @@
         <v>112</v>
       </c>
       <c r="L117">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="11:12" x14ac:dyDescent="0.25">
@@ -2638,7 +2638,7 @@
         <v>113</v>
       </c>
       <c r="L118">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="11:12" x14ac:dyDescent="0.25">
@@ -2646,7 +2646,7 @@
         <v>114</v>
       </c>
       <c r="L119">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="11:12" x14ac:dyDescent="0.25">
@@ -2654,7 +2654,7 @@
         <v>115</v>
       </c>
       <c r="L120">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="11:12" x14ac:dyDescent="0.25">
@@ -2662,7 +2662,7 @@
         <v>116</v>
       </c>
       <c r="L121">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="11:12" x14ac:dyDescent="0.25">
@@ -2670,7 +2670,7 @@
         <v>117</v>
       </c>
       <c r="L122">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="11:12" x14ac:dyDescent="0.25">
@@ -2678,7 +2678,7 @@
         <v>118</v>
       </c>
       <c r="L123">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="11:12" x14ac:dyDescent="0.25">
@@ -2686,7 +2686,7 @@
         <v>119</v>
       </c>
       <c r="L124">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="11:12" x14ac:dyDescent="0.25">
@@ -2694,6 +2694,166 @@
         <v>120</v>
       </c>
       <c r="L125">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <v>121</v>
+      </c>
+      <c r="L126">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K127">
+        <v>122</v>
+      </c>
+      <c r="L127">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <v>123</v>
+      </c>
+      <c r="L128">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <v>124</v>
+      </c>
+      <c r="L129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <v>125</v>
+      </c>
+      <c r="L130">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <v>126</v>
+      </c>
+      <c r="L131">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <v>127</v>
+      </c>
+      <c r="L132">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <v>128</v>
+      </c>
+      <c r="L133">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="134" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <v>129</v>
+      </c>
+      <c r="L134">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K135">
+        <v>130</v>
+      </c>
+      <c r="L135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K136">
+        <v>131</v>
+      </c>
+      <c r="L136">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="137" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <v>132</v>
+      </c>
+      <c r="L137">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K138">
+        <v>133</v>
+      </c>
+      <c r="L138">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <v>134</v>
+      </c>
+      <c r="L139">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <v>135</v>
+      </c>
+      <c r="L140">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K141">
+        <v>136</v>
+      </c>
+      <c r="L141">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <v>137</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <v>138</v>
+      </c>
+      <c r="L143">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="144" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <v>139</v>
+      </c>
+      <c r="L144">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K145">
+        <v>140</v>
+      </c>
+      <c r="L145">
         <v>1</v>
       </c>
     </row>
